--- a/biology/Zoologie/Heteroliodon_occipitalis/Heteroliodon_occipitalis.xlsx
+++ b/biology/Zoologie/Heteroliodon_occipitalis/Heteroliodon_occipitalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteroliodon occipitalis est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteroliodon occipitalis est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Heteroliodon occipitalis[2] mesure 310 mm dont 70 mm pour la queue. Cette espèce a la face dorsale brun pâle avec des écailles bordées de clair et présentant deux lignes longitudinales sombres. Le dessus et les côtés de sa tête ainsi que sa nuque sont blanc jaunâtre. Sa face ventrale est uniformément blanche.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Heteroliodon occipitalis mesure 310 mm dont 70 mm pour la queue. Cette espèce a la face dorsale brun pâle avec des écailles bordées de clair et présentant deux lignes longitudinales sombres. Le dessus et les côtés de sa tête ainsi que sa nuque sont blanc jaunâtre. Sa face ventrale est uniformément blanche.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1896 : Catalogue of the snakes in the British Museum. London, Taylor &amp; Francis, vol. 3, p. 1-727 (texte intégral).</t>
         </is>
